--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_6082.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_6082.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>6082</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Nathan Ellis</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Fast Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4564</t>
+          <t>4564</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +620,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4565</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +672,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4567</t>
+          <t>4567</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4728</t>
+          <t>4728</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -695,7 +759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -717,7 +781,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -754,7 +818,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4564</t>
+          <t>4564</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -791,7 +855,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4565</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -828,7 +892,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4567</t>
+          <t>4567</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -865,7 +929,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4728</t>
+          <t>4728</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_6082.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_6082.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -712,7 +713,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>19/03/2023</t>
@@ -961,4 +961,143 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.96%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4567</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.95%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4728</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>